--- a/iot/proj2.xlsx
+++ b/iot/proj2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daytonpe/Google Drive/utd/6301_iot_yen/proj2/iot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2210EFA-5525-114F-B7ED-92C7548F8005}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34AFAE59-F4DC-5A47-A376-72E0FD3A98D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{5D305A72-637D-8549-B804-5D26328310F2}"/>
   </bookViews>
@@ -56,7 +56,7 @@
     <t>Large Dataset with Retraining</t>
   </si>
   <si>
-    <t>Value Error caught, skipping iteration  0</t>
+    <t xml:space="preserve">  </t>
   </si>
 </sst>
 </file>
@@ -228,15 +228,18 @@
                 <c:pt idx="653">
                   <c:v>54.5</c:v>
                 </c:pt>
+                <c:pt idx="712">
+                  <c:v>60</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$721</c:f>
+              <c:f>Sheet1!$D$2:$D$725</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="720"/>
+                <c:ptCount val="724"/>
                 <c:pt idx="0">
                   <c:v>0.33333333333333298</c:v>
                 </c:pt>
@@ -2396,6 +2399,18 @@
                 </c:pt>
                 <c:pt idx="719">
                   <c:v>0.73263888888888795</c:v>
+                </c:pt>
+                <c:pt idx="720">
+                  <c:v>0.73739130434782596</c:v>
+                </c:pt>
+                <c:pt idx="721">
+                  <c:v>0.74171029668411803</c:v>
+                </c:pt>
+                <c:pt idx="722">
+                  <c:v>0.74171029668411803</c:v>
+                </c:pt>
+                <c:pt idx="723">
+                  <c:v>0.73867595818815301</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2485,6 +2500,9 @@
                 <c:pt idx="653">
                   <c:v>54.5</c:v>
                 </c:pt>
+                <c:pt idx="712">
+                  <c:v>60</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -4687,7 +4705,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:srgbClr val="C00000"/>
               </a:solidFill>
               <a:prstDash val="sysDash"/>
               <a:round/>
@@ -4747,6 +4765,9 @@
                 </c:pt>
                 <c:pt idx="653">
                   <c:v>54.5</c:v>
+                </c:pt>
+                <c:pt idx="712">
+                  <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6965,8 +6986,9 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:srgbClr val="00B0F0"/>
               </a:solidFill>
+              <a:prstDash val="sysDot"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -7025,6 +7047,9 @@
                 <c:pt idx="653">
                   <c:v>54.5</c:v>
                 </c:pt>
+                <c:pt idx="712">
+                  <c:v>60</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -8866,9 +8891,6 @@
                 </c:pt>
                 <c:pt idx="610">
                   <c:v>0.72222222222222199</c:v>
-                </c:pt>
-                <c:pt idx="611">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="612">
                   <c:v>0.72275334608030595</c:v>
@@ -9370,7 +9392,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -9992,8 +10014,8 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
@@ -10324,10 +10346,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8248E5C3-D779-B24B-97B1-4970D2FD3B01}">
-  <dimension ref="A1:G753"/>
+  <dimension ref="A1:N753"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G729"/>
+    <sheetView tabSelected="1" topLeftCell="E2" workbookViewId="0">
+      <selection activeCell="M48" sqref="M48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22500,9 +22522,6 @@
       <c r="F613">
         <v>4.9531459170013302E-2</v>
       </c>
-      <c r="G613" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="614" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A614">
@@ -24145,7 +24164,7 @@
         <v>0.74513274336283097</v>
       </c>
     </row>
-    <row r="705" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A705">
         <v>704</v>
       </c>
@@ -24163,7 +24182,7 @@
         <v>0.74381625441696098</v>
       </c>
     </row>
-    <row r="706" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A706">
         <v>705</v>
       </c>
@@ -24181,7 +24200,7 @@
         <v>0.74165202108963002</v>
       </c>
     </row>
-    <row r="707" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A707">
         <v>706</v>
       </c>
@@ -24199,7 +24218,7 @@
         <v>0.73859649122807003</v>
       </c>
     </row>
-    <row r="708" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A708">
         <v>707</v>
       </c>
@@ -24217,7 +24236,7 @@
         <v>0.73813708260105404</v>
       </c>
     </row>
-    <row r="709" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A709">
         <v>708</v>
       </c>
@@ -24235,7 +24254,7 @@
         <v>0.73637961335676605</v>
       </c>
     </row>
-    <row r="710" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A710">
         <v>709</v>
       </c>
@@ -24253,7 +24272,7 @@
         <v>0.74119718309859095</v>
       </c>
     </row>
-    <row r="711" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A711">
         <v>710</v>
       </c>
@@ -24271,7 +24290,7 @@
         <v>0.74210526315789405</v>
       </c>
     </row>
-    <row r="712" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A712">
         <v>711</v>
       </c>
@@ -24289,7 +24308,7 @@
         <v>0.73776223776223704</v>
       </c>
     </row>
-    <row r="713" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A713">
         <v>712</v>
       </c>
@@ -24307,11 +24326,13 @@
         <v>0.73951048951048903</v>
       </c>
     </row>
-    <row r="714" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A714">
         <v>713</v>
       </c>
-      <c r="C714" s="2"/>
+      <c r="C714" s="2">
+        <v>60</v>
+      </c>
       <c r="D714">
         <v>0.72727272727272696</v>
       </c>
@@ -24325,7 +24346,7 @@
         <v>0.73776223776223704</v>
       </c>
     </row>
-    <row r="715" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A715">
         <v>714</v>
       </c>
@@ -24343,7 +24364,7 @@
         <v>0.73730297723292404</v>
       </c>
     </row>
-    <row r="716" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A716">
         <v>715</v>
       </c>
@@ -24361,7 +24382,7 @@
         <v>0.73859649122807003</v>
       </c>
     </row>
-    <row r="717" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A717">
         <v>716</v>
       </c>
@@ -24378,8 +24399,11 @@
       <c r="G717">
         <v>0.73813708260105404</v>
       </c>
-    </row>
-    <row r="718" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="N717" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="718" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A718">
         <v>717</v>
       </c>
@@ -24397,7 +24421,7 @@
         <v>0.73859649122807003</v>
       </c>
     </row>
-    <row r="719" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A719">
         <v>718</v>
       </c>
@@ -24415,7 +24439,7 @@
         <v>0.73859649122807003</v>
       </c>
     </row>
-    <row r="720" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A720">
         <v>719</v>
       </c>
@@ -24473,7 +24497,9 @@
       <c r="A723">
         <v>722</v>
       </c>
-      <c r="C723" s="2"/>
+      <c r="C723" s="2">
+        <v>60</v>
+      </c>
       <c r="D723">
         <v>0.74171029668411803</v>
       </c>
@@ -24491,7 +24517,9 @@
       <c r="A724">
         <v>723</v>
       </c>
-      <c r="C724" s="2"/>
+      <c r="C724" s="2">
+        <v>60</v>
+      </c>
       <c r="D724">
         <v>0.74171029668411803</v>
       </c>
@@ -24506,7 +24534,9 @@
       <c r="A725">
         <v>724</v>
       </c>
-      <c r="C725" s="2"/>
+      <c r="C725" s="2">
+        <v>60</v>
+      </c>
       <c r="D725">
         <v>0.73867595818815301</v>
       </c>
